--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:37:07+00:00</t>
+    <t>2023-02-24T14:52:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:52:45+00:00</t>
+    <t>2023-02-25T15:21:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:21:41+00:00</t>
+    <t>2023-02-25T15:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:28:03+00:00</t>
+    <t>2023-02-27T07:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record prescribed ARV regimen against a given therapeutic line</t>
+    <t>This profile is to record prescribed ARV regimen against a given therapeutic line.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>ART Regimen Line</t>
+  </si>
+  <si>
+    <t>Therapeutic lines that are used to classify the patient's currently prescribed ARV regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -6737,7 +6740,7 @@
         <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6797,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6933,10 +6936,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,14 +6965,14 @@
         <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6997,10 +7000,10 @@
         <v>188</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7018,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7039,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7047,10 +7050,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7073,17 +7076,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7132,7 +7135,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7161,10 +7164,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7193,13 +7196,13 @@
         <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>163</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7248,7 +7251,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7277,10 +7280,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7306,16 +7309,16 @@
         <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7344,7 +7347,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7365,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7377,24 +7380,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7420,13 +7423,13 @@
         <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7455,10 +7458,10 @@
         <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7476,7 +7479,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7491,7 +7494,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7505,10 +7508,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,16 +7534,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7590,7 +7593,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7648,14 +7651,14 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7704,7 +7707,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7762,16 +7765,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7799,10 +7802,10 @@
         <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7820,7 +7823,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7835,24 +7838,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7878,13 +7881,13 @@
         <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7934,7 +7937,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7949,7 +7952,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7989,70 +7992,70 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8067,10 +8070,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8081,10 +8084,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8107,17 +8110,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8154,7 +8157,7 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
@@ -8164,7 +8167,7 @@
         <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8188,18 +8191,18 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -8224,14 +8227,14 @@
         <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8283,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8304,15 +8307,15 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8335,19 +8338,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8396,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8414,21 +8417,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8451,19 +8454,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8515,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8527,24 +8530,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8570,10 +8573,10 @@
         <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8603,26 +8606,26 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8640,24 +8643,24 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -8682,10 +8685,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8715,10 +8718,10 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8736,7 +8739,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8754,25 +8757,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8791,17 +8794,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8850,7 +8853,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8868,21 +8871,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8905,13 +8908,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8962,7 +8965,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8980,21 +8983,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9020,10 +9023,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9074,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9095,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9103,10 +9106,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9132,14 +9135,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9188,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9203,7 +9206,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:44:43+00:00</t>
+    <t>2023-02-27T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
